--- a/first_release.xlsx
+++ b/first_release.xlsx
@@ -3985,7 +3985,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="N4" sqref="N2:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
